--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93837FDC-44D3-4037-8AE0-52AE2A25D2FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECF6404-4E25-47AA-B0C5-0B117F7875D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>swathi</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>ORANGE HRM XPATH</t>
+  </si>
+  <si>
+    <t>//input[@class="oxd-input oxd-input--active" and@placeholder="Search"]</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +473,9 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECF6404-4E25-47AA-B0C5-0B117F7875D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D36DDC-5F11-486D-B416-8A045EE26DBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>swathi</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>//input[@class="oxd-input oxd-input--active" and@placeholder="Search"]</t>
+  </si>
+  <si>
+    <t>//i[@class="oxd-icon bi-x oxd-sidepanel-header-close"]</t>
+  </si>
+  <si>
+    <t>//input[@placeholder="Type for hints..."]</t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,15 +487,24 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D36DDC-5F11-486D-B416-8A045EE26DBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604CC1E3-87BB-4C9E-9E73-64C35B1AFC60}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>swathi</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>//input[@placeholder="Type for hints..."]</t>
+  </si>
+  <si>
+    <t>For username Admin word</t>
+  </si>
+  <si>
+    <t>//p[text()="Username : Admin"]</t>
+  </si>
+  <si>
+    <t>//p[text()="Password : admin123"]</t>
+  </si>
+  <si>
+    <t>For password Admin123 word</t>
   </si>
 </sst>
 </file>
@@ -424,16 +436,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -473,37 +485,53 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604CC1E3-87BB-4C9E-9E73-64C35B1AFC60}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D3F5FE-32F0-4B7D-8B8B-74919973DAA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>swathi</t>
   </si>
@@ -85,6 +85,24 @@
   </si>
   <si>
     <t>For password Admin123 word</t>
+  </si>
+  <si>
+    <t>For search button</t>
+  </si>
+  <si>
+    <t>//button[@type="button" and @role="none"]</t>
+  </si>
+  <si>
+    <t>For reset button</t>
+  </si>
+  <si>
+    <t>//button[@type="button" and @class="oxd-button oxd-button--medium oxd-button--ghost"]</t>
+  </si>
+  <si>
+    <t>For add button</t>
+  </si>
+  <si>
+    <t>//button[@type="button" and @class="oxd-button oxd-button--medium oxd-button--secondary"]</t>
   </si>
 </sst>
 </file>
@@ -436,17 +454,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -535,6 +553,30 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D3F5FE-32F0-4B7D-8B8B-74919973DAA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D779DB5-05E4-4A84-B03F-D39140BCFCA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>swathi</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>//button[@type="button" and @class="oxd-button oxd-button--medium oxd-button--secondary"]</t>
+  </si>
+  <si>
+    <t>For (39)records found</t>
+  </si>
+  <si>
+    <t>//span[text()=" (39) Records Found"]</t>
+  </si>
+  <si>
+    <t>For Adminpage</t>
+  </si>
+  <si>
+    <t>//a[@class="oxd-main-menu-item active"]</t>
   </si>
 </sst>
 </file>
@@ -454,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,10 +530,18 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -575,6 +595,14 @@
       </c>
       <c r="C16" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D779DB5-05E4-4A84-B03F-D39140BCFCA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EEBA03-485A-4377-AC31-D35C0405B525}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>swathi</t>
   </si>
@@ -115,6 +115,33 @@
   </si>
   <si>
     <t>//a[@class="oxd-main-menu-item active"]</t>
+  </si>
+  <si>
+    <t>PIM page</t>
+  </si>
+  <si>
+    <t>For pim</t>
+  </si>
+  <si>
+    <t>in pim page I cannot find unique element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave </t>
+  </si>
+  <si>
+    <t>For leavepage</t>
+  </si>
+  <si>
+    <t>For leavelist</t>
+  </si>
+  <si>
+    <t>//h5[@class="oxd-text oxd-text--h5 oxd-table-filter-title"]</t>
+  </si>
+  <si>
+    <t>For from date word</t>
+  </si>
+  <si>
+    <t>//label[text()="From Date"]</t>
   </si>
 </sst>
 </file>
@@ -466,16 +493,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="90.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -597,12 +624,55 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EEBA03-485A-4377-AC31-D35C0405B525}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4A0355-C2A0-4380-B3E0-EC7F10D273CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>swathi</t>
   </si>
@@ -142,19 +142,58 @@
   </si>
   <si>
     <t>//label[text()="From Date"]</t>
+  </si>
+  <si>
+    <t>For todate word</t>
+  </si>
+  <si>
+    <t>//label[text()="To Date"]</t>
+  </si>
+  <si>
+    <t>//label[text()="Show Leave with Status"]</t>
+  </si>
+  <si>
+    <t>For show leave with status word</t>
+  </si>
+  <si>
+    <t>//label[text()="Leave Type"]</t>
+  </si>
+  <si>
+    <t>//label[text()="Employee Name"]</t>
+  </si>
+  <si>
+    <t>For leave type word</t>
+  </si>
+  <si>
+    <t>For employee name word</t>
+  </si>
+  <si>
+    <t>//label[text()="Sub Unit"]</t>
+  </si>
+  <si>
+    <t>For sub unit word</t>
+  </si>
+  <si>
+    <t>//button[@type="reset"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,8 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +715,64 @@
         <v>38</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4A0355-C2A0-4380-B3E0-EC7F10D273CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F871066C-5487-42D6-B663-181C024C20F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>swathi</t>
   </si>
@@ -126,9 +126,6 @@
     <t>in pim page I cannot find unique element</t>
   </si>
   <si>
-    <t xml:space="preserve">Leave </t>
-  </si>
-  <si>
     <t>For leavepage</t>
   </si>
   <si>
@@ -175,6 +172,39 @@
   </si>
   <si>
     <t>//button[@type="reset"]</t>
+  </si>
+  <si>
+    <t>For pending approval word</t>
+  </si>
+  <si>
+    <t>//span[text()="Pending Approval "]</t>
+  </si>
+  <si>
+    <t>For orange hrm word</t>
+  </si>
+  <si>
+    <t>//img[@alt="company-branding"]</t>
+  </si>
+  <si>
+    <t>For login word</t>
+  </si>
+  <si>
+    <t>//h5[@class="oxd-text oxd-text--h5 orangehrm-login-title"]</t>
+  </si>
+  <si>
+    <t>//p[@class="oxd-text oxd-text--p orangehrm-login-forgot-header"]</t>
+  </si>
+  <si>
+    <t>For forget your password word</t>
+  </si>
+  <si>
+    <t>For orange hrm logo</t>
+  </si>
+  <si>
+    <t>//div[@class="orangehrm-login-logo"]</t>
+  </si>
+  <si>
+    <t>Leave page</t>
   </si>
 </sst>
 </file>
@@ -533,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,58 +584,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,162 +632,213 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
       <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F871066C-5487-42D6-B663-181C024C20F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A80C5F-6A89-4226-B0D6-2EA35AE14A8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>swathi</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Leave page</t>
+  </si>
+  <si>
+    <t>For</t>
   </si>
 </sst>
 </file>
@@ -563,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,6 +844,11 @@
         <v>50</v>
       </c>
     </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A80C5F-6A89-4226-B0D6-2EA35AE14A8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AA0168-AB38-477E-9401-BB11F9E0A80A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>swathi</t>
   </si>
@@ -207,7 +207,136 @@
     <t>Leave page</t>
   </si>
   <si>
-    <t>For</t>
+    <t>DEMO.CYCLOS</t>
+  </si>
+  <si>
+    <t>Loginpage</t>
+  </si>
+  <si>
+    <t>//a[@id="login-link"]</t>
+  </si>
+  <si>
+    <t>For loginword</t>
+  </si>
+  <si>
+    <t>//div[text()=" Login " and @class="title-text flex-grow-1 d-flex align-items-center"]</t>
+  </si>
+  <si>
+    <t>//div[text()="You can login with these credentials: "]</t>
+  </si>
+  <si>
+    <t>For un&amp;pw words</t>
+  </si>
+  <si>
+    <t>For username  textbox</t>
+  </si>
+  <si>
+    <t>For password text box</t>
+  </si>
+  <si>
+    <t>//input[@autocomplete="username"]</t>
+  </si>
+  <si>
+    <t>//input[@autocomplete="password"]</t>
+  </si>
+  <si>
+    <t>//*[local-name()='svg' and @class="bi bi-eye-slash"]</t>
+  </si>
+  <si>
+    <t>For show password icon</t>
+  </si>
+  <si>
+    <t>//button[@type="button" and @class="btn d-flex justify-content-center align-items-center w-100 h-100 btn-primary btn-action-primary"]</t>
+  </si>
+  <si>
+    <t>For submit button</t>
+  </si>
+  <si>
+    <t>//a[@id="forgotPasswordLink"]</t>
+  </si>
+  <si>
+    <t>For forget password link</t>
+  </si>
+  <si>
+    <t>//a[@id="registerLink"]</t>
+  </si>
+  <si>
+    <t>For register link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For pay user </t>
+  </si>
+  <si>
+    <t>//div[text()=" Pay user "]</t>
+  </si>
+  <si>
+    <t>To user button</t>
+  </si>
+  <si>
+    <t>//button[@type="button" and @class="btn btn-icon ml-2"]</t>
+  </si>
+  <si>
+    <t>For emma button</t>
+  </si>
+  <si>
+    <t>//a[text()=" Emma "]</t>
+  </si>
+  <si>
+    <t>For amount</t>
+  </si>
+  <si>
+    <t>//input[@id="id_10"]</t>
+  </si>
+  <si>
+    <t>//button[@id="id_11"]</t>
+  </si>
+  <si>
+    <t>For scheduling dropdown</t>
+  </si>
+  <si>
+    <t>//a[text()=" Monthly installments "]</t>
+  </si>
+  <si>
+    <t>For monthley installements</t>
+  </si>
+  <si>
+    <t>//input[@id="id_25"]</t>
+  </si>
+  <si>
+    <t>For number of installements</t>
+  </si>
+  <si>
+    <t>First installement Future date radiobutton</t>
+  </si>
+  <si>
+    <t>//label[text()=" Future date "]</t>
+  </si>
+  <si>
+    <t>First installement date</t>
+  </si>
+  <si>
+    <t>//input[@id="id_27"]</t>
+  </si>
+  <si>
+    <t>//label[text()=" Now "]</t>
+  </si>
+  <si>
+    <t>First installement now radiobutton</t>
+  </si>
+  <si>
+    <t>//textarea[@id="id_12"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For discription</t>
+  </si>
+  <si>
+    <t>//button[@type="button" and @class="btn d-flex justify-content-center align-items-center w-100 h-100 btn-primary"]</t>
+  </si>
+  <si>
+    <t>For next button</t>
+  </si>
+  <si>
+    <t>For conform button</t>
   </si>
 </sst>
 </file>
@@ -249,9 +378,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,9 +979,188 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AA0168-AB38-477E-9401-BB11F9E0A80A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221BA603-4491-42B0-ADB9-7ABB11A03251}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
   <si>
     <t>swathi</t>
   </si>
@@ -337,6 +337,33 @@
   </si>
   <si>
     <t>For conform button</t>
+  </si>
+  <si>
+    <t>MESSAGES</t>
+  </si>
+  <si>
+    <t>For messages button</t>
+  </si>
+  <si>
+    <t>//a[@id="messages-link"]</t>
+  </si>
+  <si>
+    <t>//div[text()="New message"]</t>
+  </si>
+  <si>
+    <t>For new messages button</t>
+  </si>
+  <si>
+    <t>//div[text()="User"]</t>
+  </si>
+  <si>
+    <t>//a[@id="id_158_user"]</t>
+  </si>
+  <si>
+    <t>For Send to</t>
+  </si>
+  <si>
+    <t>For user</t>
   </si>
 </sst>
 </file>
@@ -701,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1142,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>93</v>
       </c>
@@ -1123,7 +1150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>95</v>
       </c>
@@ -1131,7 +1158,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>98</v>
       </c>
@@ -1139,7 +1166,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>100</v>
       </c>
@@ -1147,7 +1174,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>102</v>
       </c>
@@ -1155,12 +1182,47 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F871066C-5487-42D6-B663-181C024C20F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221BA603-4491-42B0-ADB9-7ABB11A03251}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
   <si>
     <t>swathi</t>
   </si>
@@ -205,6 +205,165 @@
   </si>
   <si>
     <t>Leave page</t>
+  </si>
+  <si>
+    <t>DEMO.CYCLOS</t>
+  </si>
+  <si>
+    <t>Loginpage</t>
+  </si>
+  <si>
+    <t>//a[@id="login-link"]</t>
+  </si>
+  <si>
+    <t>For loginword</t>
+  </si>
+  <si>
+    <t>//div[text()=" Login " and @class="title-text flex-grow-1 d-flex align-items-center"]</t>
+  </si>
+  <si>
+    <t>//div[text()="You can login with these credentials: "]</t>
+  </si>
+  <si>
+    <t>For un&amp;pw words</t>
+  </si>
+  <si>
+    <t>For username  textbox</t>
+  </si>
+  <si>
+    <t>For password text box</t>
+  </si>
+  <si>
+    <t>//input[@autocomplete="username"]</t>
+  </si>
+  <si>
+    <t>//input[@autocomplete="password"]</t>
+  </si>
+  <si>
+    <t>//*[local-name()='svg' and @class="bi bi-eye-slash"]</t>
+  </si>
+  <si>
+    <t>For show password icon</t>
+  </si>
+  <si>
+    <t>//button[@type="button" and @class="btn d-flex justify-content-center align-items-center w-100 h-100 btn-primary btn-action-primary"]</t>
+  </si>
+  <si>
+    <t>For submit button</t>
+  </si>
+  <si>
+    <t>//a[@id="forgotPasswordLink"]</t>
+  </si>
+  <si>
+    <t>For forget password link</t>
+  </si>
+  <si>
+    <t>//a[@id="registerLink"]</t>
+  </si>
+  <si>
+    <t>For register link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For pay user </t>
+  </si>
+  <si>
+    <t>//div[text()=" Pay user "]</t>
+  </si>
+  <si>
+    <t>To user button</t>
+  </si>
+  <si>
+    <t>//button[@type="button" and @class="btn btn-icon ml-2"]</t>
+  </si>
+  <si>
+    <t>For emma button</t>
+  </si>
+  <si>
+    <t>//a[text()=" Emma "]</t>
+  </si>
+  <si>
+    <t>For amount</t>
+  </si>
+  <si>
+    <t>//input[@id="id_10"]</t>
+  </si>
+  <si>
+    <t>//button[@id="id_11"]</t>
+  </si>
+  <si>
+    <t>For scheduling dropdown</t>
+  </si>
+  <si>
+    <t>//a[text()=" Monthly installments "]</t>
+  </si>
+  <si>
+    <t>For monthley installements</t>
+  </si>
+  <si>
+    <t>//input[@id="id_25"]</t>
+  </si>
+  <si>
+    <t>For number of installements</t>
+  </si>
+  <si>
+    <t>First installement Future date radiobutton</t>
+  </si>
+  <si>
+    <t>//label[text()=" Future date "]</t>
+  </si>
+  <si>
+    <t>First installement date</t>
+  </si>
+  <si>
+    <t>//input[@id="id_27"]</t>
+  </si>
+  <si>
+    <t>//label[text()=" Now "]</t>
+  </si>
+  <si>
+    <t>First installement now radiobutton</t>
+  </si>
+  <si>
+    <t>//textarea[@id="id_12"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For discription</t>
+  </si>
+  <si>
+    <t>//button[@type="button" and @class="btn d-flex justify-content-center align-items-center w-100 h-100 btn-primary"]</t>
+  </si>
+  <si>
+    <t>For next button</t>
+  </si>
+  <si>
+    <t>For conform button</t>
+  </si>
+  <si>
+    <t>MESSAGES</t>
+  </si>
+  <si>
+    <t>For messages button</t>
+  </si>
+  <si>
+    <t>//a[@id="messages-link"]</t>
+  </si>
+  <si>
+    <t>//div[text()="New message"]</t>
+  </si>
+  <si>
+    <t>For new messages button</t>
+  </si>
+  <si>
+    <t>//div[text()="User"]</t>
+  </si>
+  <si>
+    <t>//a[@id="id_158_user"]</t>
+  </si>
+  <si>
+    <t>For Send to</t>
+  </si>
+  <si>
+    <t>For user</t>
   </si>
 </sst>
 </file>
@@ -246,9 +405,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,6 +1006,225 @@
         <v>50</v>
       </c>
     </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221BA603-4491-42B0-ADB9-7ABB11A03251}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8536D48-B912-41FC-92B3-57F5D37899F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
   <si>
     <t>swathi</t>
   </si>
@@ -364,6 +364,75 @@
   </si>
   <si>
     <t>For user</t>
+  </si>
+  <si>
+    <t>//a[text()=" Golden Travels "]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For golden travels </t>
+  </si>
+  <si>
+    <t>For To user contact icon</t>
+  </si>
+  <si>
+    <t>For subject</t>
+  </si>
+  <si>
+    <t>//input[@id="id_163"]</t>
+  </si>
+  <si>
+    <t>For undo button</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_undo"]</t>
+  </si>
+  <si>
+    <t>For redo button</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_redo"]</t>
+  </si>
+  <si>
+    <t>For title drop down</t>
+  </si>
+  <si>
+    <t>//select[@id="id_161_formatblock"]</t>
+  </si>
+  <si>
+    <t>For default fond dropdown</t>
+  </si>
+  <si>
+    <t>//select[@id="id_161_fontname"]</t>
+  </si>
+  <si>
+    <t>//select[@id="id_161_fontsize"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For Font size</t>
+  </si>
+  <si>
+    <t>For bold button</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_bold"]</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_italic"]</t>
+  </si>
+  <si>
+    <t>For itlaic button</t>
+  </si>
+  <si>
+    <t>For underline button</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_underline"]</t>
+  </si>
+  <si>
+    <t>For strickthrough</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_strikethrough"]</t>
   </si>
 </sst>
 </file>
@@ -728,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,6 +1294,102 @@
         <v>110</v>
       </c>
     </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8536D48-B912-41FC-92B3-57F5D37899F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07A52B4-1045-4D7F-8CA8-11D1A1395F6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="193">
   <si>
     <t>swathi</t>
   </si>
@@ -123,9 +123,6 @@
     <t>For pim</t>
   </si>
   <si>
-    <t>in pim page I cannot find unique element</t>
-  </si>
-  <si>
     <t>For leavepage</t>
   </si>
   <si>
@@ -433,6 +430,180 @@
   </si>
   <si>
     <t>//button[@id="id_161_strikethrough"]</t>
+  </si>
+  <si>
+    <t>For left button</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_justifyLeft"]</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_justifyCenter"]</t>
+  </si>
+  <si>
+    <t>For center button</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_justifyRight"]</t>
+  </si>
+  <si>
+    <t>For right button</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_justifyFull"]</t>
+  </si>
+  <si>
+    <t>For justify button</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_insertUnorderedList"]</t>
+  </si>
+  <si>
+    <t>For bulleted list button</t>
+  </si>
+  <si>
+    <t>For number list button</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_insertOrderedList"]</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_outdent"]</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_indent"]</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_insertLink"]</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_removeLink"]</t>
+  </si>
+  <si>
+    <t>//button[@id="id_161_removeformat"]</t>
+  </si>
+  <si>
+    <t>For remove format button</t>
+  </si>
+  <si>
+    <t>For Decrease identation button</t>
+  </si>
+  <si>
+    <t>For increase identation button</t>
+  </si>
+  <si>
+    <t>For insert hyperlink button</t>
+  </si>
+  <si>
+    <t>For remove hyperlink button</t>
+  </si>
+  <si>
+    <t>For editre textbox</t>
+  </si>
+  <si>
+    <t>//div[@id="id_161_editor"]</t>
+  </si>
+  <si>
+    <t>For send button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Marketplace</t>
+  </si>
+  <si>
+    <t>For market place button</t>
+  </si>
+  <si>
+    <t>//div[text()="Marketplace"]</t>
+  </si>
+  <si>
+    <t>//div[text()="Advertisements"]</t>
+  </si>
+  <si>
+    <t>For advertise page</t>
+  </si>
+  <si>
+    <t>For my purchases page</t>
+  </si>
+  <si>
+    <t>//div[text()="My purchases"]</t>
+  </si>
+  <si>
+    <t>For status dropdown</t>
+  </si>
+  <si>
+    <t>//button[@id="id_103"]</t>
+  </si>
+  <si>
+    <t>For completed drop down</t>
+  </si>
+  <si>
+    <t>//a[@id="id_103_completed"]</t>
+  </si>
+  <si>
+    <t>For begin date</t>
+  </si>
+  <si>
+    <t>//input[@id="id_105"]</t>
+  </si>
+  <si>
+    <t>For seller contact list</t>
+  </si>
+  <si>
+    <t>//input[@id="id_106"]</t>
+  </si>
+  <si>
+    <t>For end date</t>
+  </si>
+  <si>
+    <t>For order textbox</t>
+  </si>
+  <si>
+    <t>//input[@id="id_107"]</t>
+  </si>
+  <si>
+    <t>//input[@id="id_108"]</t>
+  </si>
+  <si>
+    <t>For product number textbox</t>
+  </si>
+  <si>
+    <t>For purchase word</t>
+  </si>
+  <si>
+    <t>//div[text()=" Purchases "]</t>
+  </si>
+  <si>
+    <t>For status word</t>
+  </si>
+  <si>
+    <t>//label[@for="id_103"]</t>
+  </si>
+  <si>
+    <t>For begin date word</t>
+  </si>
+  <si>
+    <t>//label[@for="id_105"]</t>
+  </si>
+  <si>
+    <t>//label[@for="id_107"]</t>
+  </si>
+  <si>
+    <t>For order word</t>
+  </si>
+  <si>
+    <t>For seller word</t>
+  </si>
+  <si>
+    <t>//label[@for="id_104"]</t>
+  </si>
+  <si>
+    <t>//label[@for="id_106"]</t>
+  </si>
+  <si>
+    <t>//label[@for="id_108"]</t>
   </si>
 </sst>
 </file>
@@ -797,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,574 +991,817 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>59</v>
       </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>104</v>
-      </c>
-      <c r="B73" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>114</v>
-      </c>
-      <c r="C78" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>116</v>
-      </c>
-      <c r="C79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>124</v>
-      </c>
-      <c r="C83" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>132</v>
-      </c>
-      <c r="C87" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>134</v>
-      </c>
-      <c r="C88" t="s">
-        <v>135</v>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>176</v>
+      </c>
+      <c r="C108" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07A52B4-1045-4D7F-8CA8-11D1A1395F6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E561CF4-6162-415A-8579-536138AEEA7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="219">
   <si>
     <t>swathi</t>
   </si>
@@ -604,6 +604,84 @@
   </si>
   <si>
     <t>//label[@for="id_108"]</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>For banking page</t>
+  </si>
+  <si>
+    <t>//a[@id="menu_banking"]</t>
+  </si>
+  <si>
+    <t>For member account page</t>
+  </si>
+  <si>
+    <t>//a[@class="nav-item active"]</t>
+  </si>
+  <si>
+    <t>For show filters module</t>
+  </si>
+  <si>
+    <t>//button[@type="button" and @class="btn"]</t>
+  </si>
+  <si>
+    <t>//div[text()="Last 12 months"]</t>
+  </si>
+  <si>
+    <t>For period dropdown</t>
+  </si>
+  <si>
+    <t>For amount textbox</t>
+  </si>
+  <si>
+    <t>//input[@id="id_224"]</t>
+  </si>
+  <si>
+    <t>For discription textbox</t>
+  </si>
+  <si>
+    <t>//input[@id="id_222"]</t>
+  </si>
+  <si>
+    <t>For user contact button</t>
+  </si>
+  <si>
+    <t>For select contact name</t>
+  </si>
+  <si>
+    <t>//a[text()=" Emma " and @href="/ui/banking/transfer/7762070814178015807/DEM-932135-NMR"]</t>
+  </si>
+  <si>
+    <t>For prder by dropdown</t>
+  </si>
+  <si>
+    <t>//button[@id="id_228"]</t>
+  </si>
+  <si>
+    <t>For filter dropdown</t>
+  </si>
+  <si>
+    <t>//button[@id="id_221"]</t>
+  </si>
+  <si>
+    <t>For to amount textbox</t>
+  </si>
+  <si>
+    <t>//input[@id="id_225"]</t>
+  </si>
+  <si>
+    <t>For direction button</t>
+  </si>
+  <si>
+    <t>//button[@id="id_226"]</t>
+  </si>
+  <si>
+    <t>For transaction number</t>
+  </si>
+  <si>
+    <t>//input[@id="id_223"]</t>
   </si>
 </sst>
 </file>
@@ -968,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,143 +1743,250 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>161</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>162</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>165</v>
-      </c>
-      <c r="C94" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C95" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>168</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>170</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>174</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>172</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>176</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>177</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>180</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>181</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>183</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>185</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>188</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>189</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>176</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>180</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>193</v>
+      </c>
+      <c r="B112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C112" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>198</v>
+      </c>
+      <c r="C114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>204</v>
+      </c>
+      <c r="C117" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>206</v>
+      </c>
+      <c r="C118" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>207</v>
+      </c>
+      <c r="C119" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>215</v>
+      </c>
+      <c r="C123" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>217</v>
+      </c>
+      <c r="C124" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E561CF4-6162-415A-8579-536138AEEA7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C22F89-B2B0-4D99-937F-FBE76364550B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="225">
   <si>
     <t>swathi</t>
   </si>
@@ -682,6 +682,24 @@
   </si>
   <si>
     <t>//input[@id="id_223"]</t>
+  </si>
+  <si>
+    <t>For member account word</t>
+  </si>
+  <si>
+    <t>//div[text()=" Member account "]</t>
+  </si>
+  <si>
+    <t>For download word</t>
+  </si>
+  <si>
+    <t>//div[text()="Download"]</t>
+  </si>
+  <si>
+    <t>For balance word</t>
+  </si>
+  <si>
+    <t>//span[text()="Balance"]</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,250 +1761,274 @@
         <v>160</v>
       </c>
     </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" t="s">
+        <v>163</v>
+      </c>
+    </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>161</v>
-      </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C94" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C95" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C97" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C98" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C99" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C100" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C101" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C102" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C103" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C104" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C105" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C106" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C107" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>180</v>
-      </c>
-      <c r="C110" t="s">
         <v>192</v>
       </c>
     </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>193</v>
+      </c>
+      <c r="B111" t="s">
+        <v>194</v>
+      </c>
+      <c r="C111" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>193</v>
-      </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C112" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C113" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C114" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C115" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C116" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C117" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C118" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C120" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C121" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C122" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C123" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C124" t="s">
-        <v>218</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>221</v>
+      </c>
+      <c r="C125" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>223</v>
+      </c>
+      <c r="C126" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C22F89-B2B0-4D99-937F-FBE76364550B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A15E4CB-4DC8-49E2-B2C5-5ED9D873CED8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="226">
   <si>
     <t>swathi</t>
   </si>
@@ -700,6 +700,9 @@
   </si>
   <si>
     <t>//span[text()="Balance"]</t>
+  </si>
+  <si>
+    <t>hibjjn</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,6 +2034,11 @@
         <v>224</v>
       </c>
     </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C22F89-B2B0-4D99-937F-FBE76364550B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DCAA72-269C-484F-80BD-8CBA72C259BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A15E4CB-4DC8-49E2-B2C5-5ED9D873CED8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DCAA72-269C-484F-80BD-8CBA72C259BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="225">
   <si>
     <t>swathi</t>
   </si>
@@ -700,9 +700,6 @@
   </si>
   <si>
     <t>//span[text()="Balance"]</t>
-  </si>
-  <si>
-    <t>hibjjn</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,11 +2031,6 @@
         <v>224</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>225</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DCAA72-269C-484F-80BD-8CBA72C259BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BDB48B-41A6-4BFC-99AD-706761663088}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="226">
   <si>
     <t>swathi</t>
   </si>
@@ -700,6 +700,9 @@
   </si>
   <si>
     <t>//span[text()="Balance"]</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="B129" sqref="B129"/>
@@ -2031,6 +2034,11 @@
         <v>224</v>
       </c>
     </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BDB48B-41A6-4BFC-99AD-706761663088}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1E28E8-13FB-4FC6-9588-8144CFE5073B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="265">
   <si>
     <t>swathi</t>
   </si>
@@ -702,7 +702,124 @@
     <t>//span[text()="Balance"]</t>
   </si>
   <si>
-    <t>hello</t>
+    <t>My info page</t>
+  </si>
+  <si>
+    <t>For my infopge</t>
+  </si>
+  <si>
+    <t>For employee image picture</t>
+  </si>
+  <si>
+    <t>//img[@alt="profile picture" and @class="employee-image"]</t>
+  </si>
+  <si>
+    <t>For personal details page</t>
+  </si>
+  <si>
+    <t>//a[text()="Personal Details"]</t>
+  </si>
+  <si>
+    <t>//input[@name="firstName"]</t>
+  </si>
+  <si>
+    <t>For employee full name textbox</t>
+  </si>
+  <si>
+    <t>//h6[text()="Personal Details"]</t>
+  </si>
+  <si>
+    <t>//label[text()="Employee Full Name"]</t>
+  </si>
+  <si>
+    <t>For employee middelname textbox</t>
+  </si>
+  <si>
+    <t>//input[@name="middleName"]</t>
+  </si>
+  <si>
+    <t>//input[@name="lastName"]</t>
+  </si>
+  <si>
+    <t>For employee lastlname textbox</t>
+  </si>
+  <si>
+    <t>//label[text()="Nickname"]</t>
+  </si>
+  <si>
+    <t>For nickname heading</t>
+  </si>
+  <si>
+    <t>For employee fullname heading</t>
+  </si>
+  <si>
+    <t>For personal details heading</t>
+  </si>
+  <si>
+    <t>Employee id heading</t>
+  </si>
+  <si>
+    <t>//label[text()="Employee Id"]</t>
+  </si>
+  <si>
+    <t>other id heading</t>
+  </si>
+  <si>
+    <t>//label[text()="Other Id"]</t>
+  </si>
+  <si>
+    <t>//label[text()="Driver's License Number"]</t>
+  </si>
+  <si>
+    <t>//label[text()="License Expiry Date"]</t>
+  </si>
+  <si>
+    <t>//label[text()="SSN Number"]</t>
+  </si>
+  <si>
+    <t>//label[text()="SIN Number"]</t>
+  </si>
+  <si>
+    <t>drivers license number heading</t>
+  </si>
+  <si>
+    <t>License expiry date heading</t>
+  </si>
+  <si>
+    <t>ssn number heading</t>
+  </si>
+  <si>
+    <t>sin number heading</t>
+  </si>
+  <si>
+    <t>nationality heading</t>
+  </si>
+  <si>
+    <t>//label[text()="Nationality"]</t>
+  </si>
+  <si>
+    <t>material status heading</t>
+  </si>
+  <si>
+    <t>//label[text()="Marital Status"]</t>
+  </si>
+  <si>
+    <t>date od birth heading</t>
+  </si>
+  <si>
+    <t>//label[text()="Date of Birth"]</t>
+  </si>
+  <si>
+    <t>gender heading</t>
+  </si>
+  <si>
+    <t>//label[text()="Gender"]</t>
+  </si>
+  <si>
+    <t>military status</t>
+  </si>
+  <si>
+    <t>//label[text()="Military Service"]</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,702 +1458,860 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" t="s">
+        <v>226</v>
+      </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>60</v>
-      </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>72</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C51" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>77</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C82" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>78</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>80</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C84" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>82</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>84</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>87</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>89</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C88" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>91</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C89" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>92</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C90" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>94</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C91" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>97</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C92" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>99</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C93" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="94" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="95" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>103</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B97" t="s">
         <v>104</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C97" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>117</v>
-      </c>
-      <c r="C70" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>123</v>
-      </c>
-      <c r="C73" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>131</v>
-      </c>
-      <c r="C77" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>135</v>
-      </c>
-      <c r="C79" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>138</v>
-      </c>
-      <c r="C80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C82" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>144</v>
-      </c>
-      <c r="C83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>154</v>
-      </c>
-      <c r="C86" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>155</v>
-      </c>
-      <c r="C87" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>156</v>
-      </c>
-      <c r="C88" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>152</v>
-      </c>
-      <c r="C89" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>157</v>
-      </c>
-      <c r="C90" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>159</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>161</v>
-      </c>
-      <c r="B93" t="s">
-        <v>162</v>
-      </c>
-      <c r="C93" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>165</v>
-      </c>
-      <c r="C94" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>166</v>
-      </c>
-      <c r="C95" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>168</v>
-      </c>
-      <c r="C96" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>170</v>
-      </c>
-      <c r="C97" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="C102" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="C103" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="C108" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="C109" t="s">
-        <v>192</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>193</v>
-      </c>
       <c r="B111" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="C111" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>155</v>
+      </c>
+      <c r="C121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>156</v>
+      </c>
+      <c r="C122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>152</v>
+      </c>
+      <c r="C123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>159</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>161</v>
+      </c>
+      <c r="B127" t="s">
+        <v>162</v>
+      </c>
+      <c r="C127" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>165</v>
+      </c>
+      <c r="C128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>170</v>
+      </c>
+      <c r="C131" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>172</v>
+      </c>
+      <c r="C133" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>176</v>
+      </c>
+      <c r="C134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>177</v>
+      </c>
+      <c r="C135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>180</v>
+      </c>
+      <c r="C136" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>181</v>
+      </c>
+      <c r="C137" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>183</v>
+      </c>
+      <c r="C138" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>185</v>
+      </c>
+      <c r="C139" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>188</v>
+      </c>
+      <c r="C140" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>189</v>
+      </c>
+      <c r="C141" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>176</v>
+      </c>
+      <c r="C142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>180</v>
+      </c>
+      <c r="C143" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>193</v>
+      </c>
+      <c r="B145" t="s">
+        <v>194</v>
+      </c>
+      <c r="C145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
         <v>196</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C146" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>198</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C147" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>201</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C148" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>202</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C149" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>204</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C150" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
         <v>206</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C151" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>207</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C152" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
         <v>209</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C153" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
         <v>211</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C154" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
         <v>213</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C155" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>215</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C156" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>217</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C157" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
         <v>219</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C158" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>221</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C159" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
         <v>223</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C160" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo_swathi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1E28E8-13FB-4FC6-9588-8144CFE5073B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1A4767-4041-4F7B-B9C3-5365D5BC6104}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0665B711-5282-44C4-855E-5B343C111376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="267">
   <si>
     <t>swathi</t>
   </si>
@@ -820,6 +820,12 @@
   </si>
   <si>
     <t>//label[text()="Military Service"]</t>
+  </si>
+  <si>
+    <t>Dashboard page</t>
+  </si>
+  <si>
+    <t>For dashboard page</t>
   </si>
 </sst>
 </file>
@@ -1186,13 +1192,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4385C-3B76-4A2D-AF0D-BF11B9352D5D}">
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="90.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1548,7 +1554,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>251</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>252</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>253</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>254</v>
       </c>
@@ -1580,7 +1586,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>255</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>257</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>259</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>261</v>
       </c>
@@ -1612,12 +1618,23 @@
         <v>262</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>263</v>
       </c>
       <c r="C57" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>265</v>
+      </c>
+      <c r="B59" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
